--- a/data/trans_camb/P42_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,58</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,74</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,99</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,46</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,38</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,65</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-20,04</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-20,21</t>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,64</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 8,94</t>
+          <t>-10,51; 8,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -4,92</t>
+          <t>-16,76; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,21; -4,87</t>
+          <t>-16,76; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 5,9</t>
+          <t>-16,76; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,45; -2,9</t>
+          <t>-10,4; 5,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,59; -5,85</t>
+          <t>-10,85; 4,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 2,64</t>
+          <t>-11,35; 3,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -8,7</t>
+          <t>-14,22; -1,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-35,3; -8,13</t>
+          <t>-7,86; 4,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 1,13</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; 0,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; -2,02</t>
         </is>
       </c>
     </row>
@@ -738,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-57,21%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,32 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,35%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-78,77%</t>
+          <t>-38,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-78,48%</t>
+          <t>-37,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-55,66%</t>
+          <t>-46,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-88,14%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-88,9%</t>
+          <t>-25,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-64,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-69,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -806,12 +875,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-89,74; 63,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +890,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-86,12; 36,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -51,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -41,69</t>
+          <t>-87,17; 324,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 156,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 124,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,01</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,03</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-13,94</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,43</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,17</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,35</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,11</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,9</t>
+          <t>-2,09</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-5,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-7,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -2,03</t>
+          <t>-7,55; 3,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,41; -8,36</t>
+          <t>-11,39; -1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -6,02</t>
+          <t>-11,71; -1,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,79; -1,56</t>
+          <t>-13,59; -4,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,36; -13,2</t>
+          <t>-7,56; 1,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,54; -11,35</t>
+          <t>-10,27; -2,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -4,38</t>
+          <t>-9,7; -2,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -11,63</t>
+          <t>-10,89; -3,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-22,23; -9,6</t>
+          <t>-5,7; 1,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; -2,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; -2,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; -4,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-54,25%</t>
+          <t>-20,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-81,47%</t>
+          <t>-71,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-75,56%</t>
+          <t>-74,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,53%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-91,04%</t>
+          <t>-39,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-85,44%</t>
+          <t>-92,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,82%</t>
+          <t>-82,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-85,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-79,58%</t>
+          <t>-29,62%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-80,72%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-77,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,87; -7,39</t>
+          <t>-67,65; 79,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-94,17; -55,28</t>
+          <t>-93,39; -8,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-92,61; -31,82</t>
+          <t>-94,26; -18,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,38; -2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-98,11; -72,29</t>
+          <t>-78,52; 52,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-96,72; -57,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,19; -24,29</t>
+          <t>-100,0; -9,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,12; -68,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-90,75; -53,05</t>
+          <t>-62,86; 28,55</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-93,7; -48,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-91,77; -41,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,15</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,15</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,24</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-3,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,94</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-5,9</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -1,08</t>
+          <t>-10,2; 0,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; -5,37</t>
+          <t>-12,97; -3,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -5,01</t>
+          <t>-12,97; -3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 2,15</t>
+          <t>-13,3; -3,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -1,34</t>
+          <t>-9,45; 2,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -1,17</t>
+          <t>-11,83; -1,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -0,82</t>
+          <t>-11,67; -1,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -4,37</t>
+          <t>-13,83; -4,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -4,45</t>
+          <t>-7,63; 0,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; -2,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; -2,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; -4,44</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1344,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-66,43%</t>
+          <t>-64,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1185,32 +1359,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,02%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-64,17%</t>
+          <t>-39,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,3%</t>
+          <t>-69,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,8%</t>
+          <t>-68,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-78,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-78,91%</t>
+          <t>-49,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-82,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-81,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1412,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-92,56; 5,63</t>
+          <t>-100,0; 65,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,39 +1427,54 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,32; 43,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,33; -10,86</t>
+          <t>-84,37; 74,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,58; -10,6</t>
+          <t>-93,73; -3,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,12; -4,76</t>
+          <t>-93,63; 3,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-91,31; -50,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-92,07; -53,25</t>
+          <t>-80,08; 20,35</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-95,48; -44,05</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-95,4; -44,92</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -8,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -6,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -4,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -9,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -8,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-57,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-87,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-83,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-79,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-75,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-51,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-83,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-79,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -25,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-95,73; -70,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-94,56; -53,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,16; -17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-89,73; -62,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,91; -56,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -31,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-90,36; -71,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-87,98; -65,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-5,91</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-5,99</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-7,02</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-5,48</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-5,39</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-6,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; 1,3</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; -2,96</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; -3,05</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; -4,45</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 0,55</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; -2,68</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; -2,42</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; -4,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; -0,51</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; -3,69</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; -3,52</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -5,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-35,1%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-84,14%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-85,36%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-39,57%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-75,72%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-71,66%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-37,46%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-79,8%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-78,48%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-66,26; 24,66</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-95,79; -52,37</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-96,06; -53,55</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-69,59; 21,54</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-91,57; -46,26</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-87,74; -37,05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-62,94; -8,32</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-90,26; -61,55</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-88,89; -59,91</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
